--- a/★Tableauでの単価比較.xlsx
+++ b/★Tableauでの単価比較.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canon\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DB93E8-5F1D-4AE2-92E3-0967A636182A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1271B6EA-73E5-4550-9999-9CF2413291E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="3" xr2:uid="{69230321-4922-4BCB-A4CA-114B3775621A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{69230321-4922-4BCB-A4CA-114B3775621A}"/>
   </bookViews>
   <sheets>
     <sheet name="No1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="127">
   <si>
     <t>FROM-TO</t>
     <phoneticPr fontId="2"/>
@@ -615,6 +615,19 @@
     <t>サマリ(最Bレート)</t>
     <rPh sb="4" eb="5">
       <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>起用無(新規レーン)</t>
+    <rPh sb="0" eb="2">
+      <t>キヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1068,18 +1081,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1106,6 +1107,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1668,6 +1681,224 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>925285</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="吹き出し: 角を丸めた四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{337D51DB-4378-72DF-BA2B-7726DBFB7401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11389178" y="29064856"/>
+          <a:ext cx="2571750" cy="381001"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -55578"/>
+            <a:gd name="adj2" fmla="val 225892"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>同じ倍率をかけるイメージだね</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628648</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>653142</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="吹き出し: 角を丸めた四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DDDC04-9155-4D74-BA35-07FA3FF533C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1989362" y="28751894"/>
+          <a:ext cx="3943351" cy="519792"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -53853"/>
+            <a:gd name="adj2" fmla="val 173536"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>From - TO - C/H</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>193221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1132114</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="吹き出し: 角を丸めた四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB19A009-6227-6DB2-A1FC-A3158C918EB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12616543" y="32033935"/>
+          <a:ext cx="2707821" cy="636815"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -79196"/>
+            <a:gd name="adj2" fmla="val -149321"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規レーンは最</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のみ表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⇒実績上は起用なしと表示する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1995,14 +2226,14 @@
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="24"/>
+      <c r="N2" s="33"/>
     </row>
     <row r="3" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M3" s="25"/>
-      <c r="N3" s="26"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
@@ -2666,7 +2897,7 @@
   <dimension ref="A1:N156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M138" sqref="M138"/>
+      <selection activeCell="M140" sqref="M140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2676,7 +2907,7 @@
     <col min="8" max="8" width="16.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.125" customWidth="1"/>
     <col min="10" max="10" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
     <col min="13" max="13" width="16.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.375" customWidth="1"/>
     <col min="15" max="15" width="16.125" bestFit="1" customWidth="1"/>
@@ -3287,415 +3518,413 @@
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C122" s="27" t="s">
+      <c r="C122" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27"/>
-      <c r="H122" s="28" t="s">
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="H122" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="I122" s="28"/>
-      <c r="J122" s="28"/>
-      <c r="K122" s="28"/>
-      <c r="L122" s="28"/>
-      <c r="M122" s="28"/>
-      <c r="N122" s="28"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
+      <c r="N122" s="24"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C123" s="27" t="s">
+      <c r="C123" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D123" s="27" t="s">
+      <c r="D123" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E123" s="27" t="s">
+      <c r="E123" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="H123" s="28" t="s">
+      <c r="H123" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="I123" s="28" t="s">
+      <c r="I123" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="J123" s="27" t="s">
+      <c r="J123" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="K123" s="29" t="s">
+      <c r="K123" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="L123" s="27" t="s">
+      <c r="L123" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="M123" s="27" t="s">
+      <c r="M123" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="N123" s="30" t="s">
+      <c r="N123" s="26" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C124" s="27" t="s">
+      <c r="C124" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D124" s="27" t="s">
+      <c r="D124" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E124" s="27">
+      <c r="E124" s="23">
         <v>20</v>
       </c>
-      <c r="H124" s="28" t="s">
+      <c r="H124" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I124" s="28">
+      <c r="I124" s="24">
         <v>200</v>
       </c>
-      <c r="J124" s="27">
+      <c r="J124" s="23">
         <v>100</v>
       </c>
-      <c r="K124" s="29">
+      <c r="K124" s="25">
         <v>2</v>
       </c>
-      <c r="L124" s="27" t="s">
+      <c r="L124" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="M124" s="27">
+      <c r="M124" s="23">
         <v>20</v>
       </c>
-      <c r="N124" s="31">
+      <c r="N124" s="27">
         <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C125" s="27" t="s">
+      <c r="C125" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D125" s="27" t="s">
+      <c r="D125" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E125" s="27">
+      <c r="E125" s="23">
         <v>30</v>
       </c>
-      <c r="H125" s="28" t="s">
+      <c r="H125" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I125" s="28">
+      <c r="I125" s="24">
         <v>200</v>
       </c>
-      <c r="J125" s="27">
+      <c r="J125" s="23">
         <v>100</v>
       </c>
-      <c r="K125" s="29">
+      <c r="K125" s="25">
         <v>2</v>
       </c>
-      <c r="L125" s="27" t="s">
+      <c r="L125" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="M125" s="27">
+      <c r="M125" s="23">
         <v>30</v>
       </c>
-      <c r="N125" s="31">
+      <c r="N125" s="27">
         <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C126" s="27" t="s">
+      <c r="C126" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D126" s="27" t="s">
+      <c r="D126" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="E126" s="27">
+      <c r="E126" s="23">
         <v>50</v>
       </c>
-      <c r="H126" s="28" t="s">
+      <c r="H126" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I126" s="28">
+      <c r="I126" s="24">
         <v>200</v>
       </c>
-      <c r="J126" s="32">
+      <c r="J126" s="28">
         <v>100</v>
       </c>
-      <c r="K126" s="33">
+      <c r="K126" s="29">
         <v>2</v>
       </c>
-      <c r="L126" s="27" t="s">
+      <c r="L126" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="M126" s="27">
+      <c r="M126" s="23">
         <v>50</v>
       </c>
-      <c r="N126" s="31">
+      <c r="N126" s="27">
         <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C127" s="27" t="s">
+      <c r="C127" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D127" s="27" t="s">
+      <c r="D127" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E127" s="27">
+      <c r="E127" s="23">
         <v>300</v>
       </c>
-      <c r="H127" s="28" t="s">
+      <c r="H127" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="I127" s="28">
+      <c r="I127" s="24">
         <v>150</v>
       </c>
-      <c r="J127" s="27">
+      <c r="J127" s="23">
         <v>300</v>
       </c>
-      <c r="K127" s="29">
+      <c r="K127" s="25">
         <v>0.5</v>
       </c>
-      <c r="L127" s="27" t="s">
+      <c r="L127" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="M127" s="27">
+      <c r="M127" s="23">
         <v>300</v>
       </c>
-      <c r="N127" s="31">
+      <c r="N127" s="27">
         <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C128" s="27" t="s">
+      <c r="C128" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D128" s="27" t="s">
+      <c r="D128" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="E128" s="27">
+      <c r="E128" s="23">
         <v>1000</v>
       </c>
-      <c r="H128" s="28" t="s">
+      <c r="H128" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I128" s="28">
+      <c r="I128" s="24">
         <v>150</v>
       </c>
-      <c r="J128" s="27" t="s">
+      <c r="J128" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="K128" s="29" t="s">
+      <c r="K128" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="L128" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="M128" s="27" t="s">
+      <c r="L128" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="M128" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="N128" s="34">
+      <c r="N128" s="30">
         <v>150</v>
       </c>
     </row>
     <row r="129" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C129" s="27" t="s">
+      <c r="C129" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D129" s="27" t="s">
+      <c r="D129" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E129" s="27">
+      <c r="E129" s="23">
         <v>1000</v>
       </c>
-      <c r="H129" s="28" t="s">
+      <c r="H129" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I129" s="28"/>
-      <c r="J129" s="27"/>
-      <c r="K129" s="29"/>
-      <c r="L129" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="M129" s="27"/>
-      <c r="N129" s="30"/>
+      <c r="I129" s="24"/>
+      <c r="J129" s="23"/>
+      <c r="K129" s="25"/>
+      <c r="L129" s="23"/>
+      <c r="M129" s="23"/>
+      <c r="N129" s="26"/>
     </row>
     <row r="130" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="N130" t="s">
+      <c r="K130" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="131" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="N131" t="s">
+      <c r="K131" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="134" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C134" s="27" t="s">
+      <c r="C134" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D134" s="27"/>
-      <c r="F134" s="28" t="s">
+      <c r="D134" s="23"/>
+      <c r="F134" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="G134" s="28"/>
-      <c r="H134" s="28"/>
-      <c r="I134" s="28"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="24"/>
+      <c r="I134" s="24"/>
     </row>
     <row r="135" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C135" s="27" t="s">
+      <c r="C135" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D135" s="27" t="s">
+      <c r="D135" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="F135" s="28" t="s">
+      <c r="F135" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G135" s="28" t="s">
+      <c r="G135" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="H135" s="27" t="s">
+      <c r="H135" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="I135" s="29" t="s">
+      <c r="I135" s="25" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="136" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C136" s="27" t="s">
+      <c r="C136" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D136" s="27">
+      <c r="D136" s="23">
         <v>100</v>
       </c>
-      <c r="F136" s="28" t="s">
+      <c r="F136" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G136" s="28">
+      <c r="G136" s="24">
         <v>200</v>
       </c>
-      <c r="H136" s="27">
+      <c r="H136" s="23">
         <v>100</v>
       </c>
-      <c r="I136" s="29">
+      <c r="I136" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="137" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C137" s="27" t="s">
+      <c r="C137" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D137" s="27">
+      <c r="D137" s="23">
         <v>300</v>
       </c>
-      <c r="F137" s="28" t="s">
+      <c r="F137" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G137" s="28">
+      <c r="G137" s="24">
         <v>150</v>
       </c>
-      <c r="H137" s="27">
+      <c r="H137" s="23">
         <v>300</v>
       </c>
-      <c r="I137" s="29">
+      <c r="I137" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="138" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C138" s="35" t="s">
+      <c r="C138" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D138" s="35" t="s">
+      <c r="D138" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="F138" s="28" t="s">
+      <c r="F138" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G138" s="28">
+      <c r="G138" s="24">
         <v>150</v>
       </c>
-      <c r="H138" s="32" t="s">
+      <c r="H138" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="I138" s="33" t="s">
+      <c r="I138" s="29" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="139" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C139" s="27" t="s">
+      <c r="C139" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D139" s="27">
+      <c r="D139" s="23">
         <v>2000</v>
       </c>
     </row>
     <row r="142" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C142" s="28" t="s">
+      <c r="C142" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D142" s="28"/>
+      <c r="D142" s="24"/>
     </row>
     <row r="143" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C143" s="28" t="s">
+      <c r="C143" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D143" s="28" t="s">
+      <c r="D143" s="24" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="144" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C144" s="28" t="s">
+      <c r="C144" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="28">
+      <c r="D144" s="24">
         <v>200</v>
       </c>
     </row>
     <row r="145" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C145" s="28" t="s">
+      <c r="C145" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D145" s="28">
+      <c r="D145" s="24">
         <v>150</v>
       </c>
     </row>
     <row r="146" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C146" s="28" t="s">
+      <c r="C146" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D146" s="28">
+      <c r="D146" s="24">
         <v>150</v>
       </c>
     </row>
     <row r="147" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C147" s="28" t="s">
+      <c r="C147" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D147" s="28" t="s">
+      <c r="D147" s="24" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="152" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C152" s="28"/>
-      <c r="D152" s="28"/>
-      <c r="E152" s="28"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="24"/>
     </row>
     <row r="153" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C153" s="28"/>
-      <c r="D153" s="28"/>
-      <c r="E153" s="28"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="24"/>
     </row>
     <row r="154" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C154" s="28"/>
-      <c r="D154" s="28"/>
-      <c r="E154" s="28"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="24"/>
     </row>
     <row r="155" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C155" s="28"/>
-      <c r="D155" s="28"/>
-      <c r="E155" s="28"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="24"/>
     </row>
     <row r="156" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C156" s="28"/>
-      <c r="D156" s="28"/>
-      <c r="E156" s="28"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/★Tableauでの単価比較.xlsx
+++ b/★Tableauでの単価比較.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canon\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1271B6EA-73E5-4550-9999-9CF2413291E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B94284D-24C8-443B-B15A-588B5EB2D48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{69230321-4922-4BCB-A4CA-114B3775621A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="5" xr2:uid="{69230321-4922-4BCB-A4CA-114B3775621A}"/>
   </bookViews>
   <sheets>
     <sheet name="No1" sheetId="1" r:id="rId1"/>
-    <sheet name="No2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="金額規模比較" sheetId="4" r:id="rId4"/>
+    <sheet name="金額規模比較" sheetId="4" r:id="rId2"/>
+    <sheet name="No2" sheetId="2" r:id="rId3"/>
+    <sheet name="単価予実" sheetId="5" r:id="rId4"/>
+    <sheet name="前月比" sheetId="3" r:id="rId5"/>
+    <sheet name="年間金額" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +38,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>山下将平</author>
+  </authors>
+  <commentList>
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{C599578E-72BB-45DC-85A5-364727A0FD24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>今までは1600に</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="160">
   <si>
     <t>FROM-TO</t>
     <phoneticPr fontId="2"/>
@@ -628,6 +655,218 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単価予実</t>
+    <rPh sb="0" eb="4">
+      <t>タンカヨジツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FROM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C/H</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CARRIER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>契約</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単価</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JPTYO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USLAX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KWE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SPOT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本数</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>契約単価</t>
+    <rPh sb="0" eb="4">
+      <t>ケイヤクタンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USLAXX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CNSHA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SGSIN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KEY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SPOT影響とPSS影響はそのままの数値で出せるはず</t>
+    <rPh sb="4" eb="6">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャリア単位をサマる</t>
+    <rPh sb="4" eb="6">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サマリ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結合</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?app=desktop&amp;v=xcDESxPfs2k</t>
+  </si>
+  <si>
+    <t>1月～４月：実績データ</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5月～：25年レート比較表</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ヒカクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★５月見通し</t>
+    <rPh sb="2" eb="5">
+      <t>ガツミトオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金額実績</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金額規模</t>
+    <rPh sb="0" eb="4">
+      <t>キンガクキボ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金額規模(×12/5)</t>
+    <rPh sb="0" eb="4">
+      <t>キンガクキボ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★ユニオン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★6月見通し</t>
+    <rPh sb="2" eb="5">
+      <t>ガツミトオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1月～5月：実績データ</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金額規模(×12/6)</t>
+    <rPh sb="0" eb="4">
+      <t>キンガクキボ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -636,7 +875,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,8 +925,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -730,8 +986,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1002,6 +1282,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1011,7 +1539,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1108,6 +1636,93 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1119,6 +1734,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1902,6 +2544,1342 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矢印: U ターン 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4407D11-F2C6-3DCF-34C2-01ABA50776B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5695950" y="238125"/>
+          <a:ext cx="2457450" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="uturnArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC48D4AD-BE31-4034-C190-AFE8A8191D54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7134225" y="1781174"/>
+          <a:ext cx="4476750" cy="876301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>実績に対し契約レートがある場合のみ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>契約単価を割り当てていた</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>★契約レートがない実績は実績と同単価としてみていた</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF6C583E-5CA8-C38A-8FB6-1A7AC54A55E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6581774" y="4571997"/>
+          <a:ext cx="4981575" cy="2047877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャリア単位はまとめて、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>契約レートが当たるレーン数を増やす</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>★契約レートがない実績レーンは、データを除く</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>★タイトルを、実績単価 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>契約レート存在レーンのみ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　　　　想定単価</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>実績レーンに対する契約開始時レート</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　　　　にする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50792F5B-EC6A-CCF2-78D4-E190CDCF38B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="3790950"/>
+          <a:ext cx="942975" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -86490"/>
+            <a:gd name="adj2" fmla="val 195833"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>データ除外</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA74FE08-E808-0610-A5AB-330CD5E4FA47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933825" y="2524125"/>
+          <a:ext cx="1847850" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -63461"/>
+            <a:gd name="adj2" fmla="val -155682"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キーから除く</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42243045-D0AC-FB7D-9E9A-AB249FD1DD97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343024" y="4952998"/>
+          <a:ext cx="4238626" cy="2276477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>データベースが変わるから注意！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①実績グラフ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>本数・金額・単価</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　⇒データベース① </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャリア単位で分かれているデータ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②単価予実グラフ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　⇒データベース② </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャリアを様ったデータ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>③契約レート推移</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　⇒データベース③ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レート比較表データ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C52659F4-59A9-B24D-C33D-E031615EA3A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143250" y="2276475"/>
+          <a:ext cx="0" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECC4ECC-ACAE-EC4B-9970-CC2C41EF0E29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11877675" y="1885950"/>
+          <a:ext cx="0" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="フローチャート: 処理 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A21DE603-17E7-3FF9-B4F1-914111621763}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14744700" y="2800350"/>
+          <a:ext cx="819150" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="フローチャート: 処理 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42263E36-2C3F-4C55-AAD1-8A8B3019DD20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14763750" y="4210050"/>
+          <a:ext cx="819150" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="フローチャート: 処理 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50FEF03A-79DC-3B2B-E6D8-E6D2EE6C38D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16068675" y="3114675"/>
+          <a:ext cx="819150" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="フローチャート: 処理 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCD5AE65-3F1B-EA4F-C1F4-F26EBD10F473}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16087725" y="3810000"/>
+          <a:ext cx="819150" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="楕円 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9773D01A-8EBF-7F7F-0761-2DE2DE689A35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17383125" y="3419475"/>
+          <a:ext cx="504825" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94BC080-21FA-EB9A-39BD-8D7F934B7D1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15563850" y="2990850"/>
+          <a:ext cx="504825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28142AD5-46F4-EF53-76F9-6FB5B8104E19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15582900" y="4000500"/>
+          <a:ext cx="504825" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F47F0B7F-88CA-C064-9D73-433EFAE625FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="17" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16906875" y="3671888"/>
+          <a:ext cx="476250" cy="328612"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{145F15B2-399A-1298-27E4-C8446BC7B731}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="17" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16887825" y="3305175"/>
+          <a:ext cx="495300" cy="366713"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矢印: U ターン 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92AC5232-BD2A-E123-6389-54E0A2C8B936}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5953125" y="2867025"/>
+          <a:ext cx="3829050" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="uturnArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>391554</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>625139</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矢印: U ターン 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9FFB2D7-B42C-BE43-8337-9478C0E71925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8589866">
+          <a:off x="4506354" y="3218774"/>
+          <a:ext cx="2976785" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="uturnArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2205,7 +4183,7 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
@@ -2222,20 +4200,20 @@
     <col min="21" max="21" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14">
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="33"/>
-    </row>
-    <row r="3" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N2" s="62"/>
+    </row>
+    <row r="3" spans="2:14" ht="12.75" customHeight="1">
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -2246,7 +4224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:14">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2284,7 +4262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:14">
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
@@ -2322,7 +4300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:14">
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
@@ -2340,7 +4318,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:14">
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
@@ -2358,7 +4336,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:14">
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
@@ -2376,7 +4354,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:14">
       <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
@@ -2394,7 +4372,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:14">
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
@@ -2412,7 +4390,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:14">
       <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
@@ -2430,7 +4408,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:14">
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
@@ -2448,7 +4426,7 @@
       <c r="M13" s="10"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:14">
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
@@ -2466,7 +4444,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:14">
       <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
@@ -2484,7 +4462,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:14">
       <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
@@ -2502,7 +4480,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:14">
       <c r="B17" s="9" t="s">
         <v>25</v>
       </c>
@@ -2520,7 +4498,7 @@
       <c r="M17" s="10"/>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:14">
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
@@ -2538,7 +4516,7 @@
       <c r="M18" s="10"/>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14">
       <c r="I19" s="8" t="s">
         <v>11</v>
       </c>
@@ -2548,7 +4526,7 @@
       <c r="M19" s="10"/>
       <c r="N19" s="17"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:14">
       <c r="I20" s="8" t="s">
         <v>12</v>
       </c>
@@ -2558,7 +4536,7 @@
       <c r="M20" s="10"/>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:14">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -2571,7 +4549,7 @@
       <c r="M21" s="10"/>
       <c r="N21" s="17"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:14">
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
@@ -2599,7 +4577,7 @@
       <c r="M22" s="10"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:14">
       <c r="B23" s="8" t="s">
         <v>4</v>
       </c>
@@ -2627,7 +4605,7 @@
       <c r="M23" s="10"/>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:14">
       <c r="B24" s="8" t="s">
         <v>5</v>
       </c>
@@ -2645,7 +4623,7 @@
       <c r="M24" s="10"/>
       <c r="N24" s="17"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:14">
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -2663,7 +4641,7 @@
       <c r="M25" s="10"/>
       <c r="N25" s="17"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:14">
       <c r="B26" s="8" t="s">
         <v>7</v>
       </c>
@@ -2681,7 +4659,7 @@
       <c r="M26" s="10"/>
       <c r="N26" s="17"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:14">
       <c r="B27" s="8" t="s">
         <v>8</v>
       </c>
@@ -2699,7 +4677,7 @@
       <c r="M27" s="10"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:14">
       <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
@@ -2717,7 +4695,7 @@
       <c r="M28" s="10"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:14">
       <c r="B29" s="8" t="s">
         <v>10</v>
       </c>
@@ -2735,7 +4713,7 @@
       <c r="M29" s="10"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:14">
       <c r="B30" s="8" t="s">
         <v>11</v>
       </c>
@@ -2753,7 +4731,7 @@
       <c r="M30" s="10"/>
       <c r="N30" s="17"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:14">
       <c r="B31" s="8" t="s">
         <v>12</v>
       </c>
@@ -2771,7 +4749,7 @@
       <c r="M31" s="10"/>
       <c r="N31" s="17"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:14">
       <c r="B32" s="8" t="s">
         <v>13</v>
       </c>
@@ -2789,7 +4767,7 @@
       <c r="M32" s="10"/>
       <c r="N32" s="17"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:14">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2807,7 +4785,7 @@
       <c r="M33" s="10"/>
       <c r="N33" s="17"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:14">
       <c r="B34" s="9" t="s">
         <v>26</v>
       </c>
@@ -2825,7 +4803,7 @@
       <c r="M34" s="10"/>
       <c r="N34" s="17"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:14">
       <c r="B35" s="12" t="s">
         <v>20</v>
       </c>
@@ -2854,53 +4832,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6147869E-EA5D-40F0-90B2-1BA411053E8B}">
-  <dimension ref="B15:B16"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC40111-8DB6-4891-BCBC-09C978A59808}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F08355-7F24-43AB-9F5C-E93ED5031069}">
   <dimension ref="A1:N156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A117" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M140" sqref="M140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="4" max="5" width="16.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
@@ -2917,607 +4856,607 @@
     <col min="19" max="19" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1">
       <c r="A37">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1">
       <c r="A38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1">
       <c r="A54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1">
       <c r="A55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1">
       <c r="A71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1">
       <c r="A72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1">
       <c r="A88">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1">
       <c r="A89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1">
       <c r="A105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1">
       <c r="A106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1">
       <c r="A110" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1">
       <c r="A111" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1">
       <c r="A112" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:14">
       <c r="A113" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:14">
       <c r="A114" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:14">
       <c r="A115" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:14">
       <c r="A116" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:14">
       <c r="A117" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:14">
       <c r="A118" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:14">
       <c r="A119" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:14">
       <c r="A120" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:14">
       <c r="C122" s="23" t="s">
         <v>105</v>
       </c>
@@ -3533,7 +5472,7 @@
       <c r="M122" s="24"/>
       <c r="N122" s="24"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:14">
       <c r="C123" s="23" t="s">
         <v>107</v>
       </c>
@@ -3565,7 +5504,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:14">
       <c r="C124" s="23" t="s">
         <v>4</v>
       </c>
@@ -3597,7 +5536,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:14">
       <c r="C125" s="23" t="s">
         <v>4</v>
       </c>
@@ -3629,7 +5568,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:14">
       <c r="C126" s="23" t="s">
         <v>4</v>
       </c>
@@ -3661,7 +5600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:14">
       <c r="C127" s="23" t="s">
         <v>5</v>
       </c>
@@ -3693,7 +5632,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:14">
       <c r="C128" s="23" t="s">
         <v>7</v>
       </c>
@@ -3725,7 +5664,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="129" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="129" spans="3:14">
       <c r="C129" s="23" t="s">
         <v>7</v>
       </c>
@@ -3745,17 +5684,17 @@
       <c r="M129" s="23"/>
       <c r="N129" s="26"/>
     </row>
-    <row r="130" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="130" spans="3:14">
       <c r="K130" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="131" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="131" spans="3:14">
       <c r="K131" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="134" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="134" spans="3:14">
       <c r="C134" s="23" t="s">
         <v>111</v>
       </c>
@@ -3767,7 +5706,7 @@
       <c r="H134" s="24"/>
       <c r="I134" s="24"/>
     </row>
-    <row r="135" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="135" spans="3:14">
       <c r="C135" s="23" t="s">
         <v>107</v>
       </c>
@@ -3787,7 +5726,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="136" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="136" spans="3:14">
       <c r="C136" s="23" t="s">
         <v>4</v>
       </c>
@@ -3807,7 +5746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="137" spans="3:14">
       <c r="C137" s="23" t="s">
         <v>5</v>
       </c>
@@ -3827,7 +5766,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="138" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="138" spans="3:14">
       <c r="C138" s="31" t="s">
         <v>6</v>
       </c>
@@ -3847,7 +5786,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="139" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="139" spans="3:14">
       <c r="C139" s="23" t="s">
         <v>7</v>
       </c>
@@ -3855,13 +5794,13 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="142" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="142" spans="3:14">
       <c r="C142" s="24" t="s">
         <v>125</v>
       </c>
       <c r="D142" s="24"/>
     </row>
-    <row r="143" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="143" spans="3:14">
       <c r="C143" s="24" t="s">
         <v>107</v>
       </c>
@@ -3869,7 +5808,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="144" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="144" spans="3:14">
       <c r="C144" s="24" t="s">
         <v>4</v>
       </c>
@@ -3877,7 +5816,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="3:5">
       <c r="C145" s="24" t="s">
         <v>5</v>
       </c>
@@ -3885,7 +5824,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="3:5">
       <c r="C146" s="24" t="s">
         <v>6</v>
       </c>
@@ -3893,7 +5832,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="3:5">
       <c r="C147" s="24" t="s">
         <v>7</v>
       </c>
@@ -3901,30 +5840,903 @@
         <v>121</v>
       </c>
     </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="152" spans="3:5">
       <c r="C152" s="24"/>
       <c r="D152" s="24"/>
       <c r="E152" s="24"/>
     </row>
-    <row r="153" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="153" spans="3:5">
       <c r="C153" s="24"/>
       <c r="D153" s="24"/>
       <c r="E153" s="24"/>
     </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="154" spans="3:5">
       <c r="C154" s="24"/>
       <c r="D154" s="24"/>
       <c r="E154" s="24"/>
     </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="155" spans="3:5">
       <c r="C155" s="24"/>
       <c r="D155" s="24"/>
       <c r="E155" s="24"/>
     </row>
-    <row r="156" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="156" spans="3:5">
       <c r="C156" s="24"/>
       <c r="D156" s="24"/>
       <c r="E156" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6147869E-EA5D-40F0-90B2-1BA411053E8B}">
+  <dimension ref="B15:B16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC376D59-DFD7-4F28-B3CE-8017CA6DABF9}">
+  <dimension ref="B2:AA24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.375" customWidth="1"/>
+    <col min="17" max="17" width="9.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:27">
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27">
+      <c r="E3" s="56" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27">
+      <c r="C5" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="N5" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="O5" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="P5" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q5" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="R5" s="33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27">
+      <c r="C6" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I6" s="35">
+        <v>30</v>
+      </c>
+      <c r="J6" s="39">
+        <v>2000</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="R6" s="35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="C7" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3000</v>
+      </c>
+      <c r="I7" s="35">
+        <v>20</v>
+      </c>
+      <c r="J7" s="44">
+        <v>2000</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="R7" s="37">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27">
+      <c r="C8" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="42">
+        <v>1600</v>
+      </c>
+      <c r="I8" s="43">
+        <v>50</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27">
+      <c r="C9" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" s="40"/>
+    </row>
+    <row r="12" spans="2:27">
+      <c r="D12" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="X12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27">
+      <c r="AA14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27">
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27">
+      <c r="C16" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="N16" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="O16" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="P16" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q16" s="33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="3:24">
+      <c r="C17" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H17" s="35">
+        <v>30</v>
+      </c>
+      <c r="I17" s="39">
+        <v>1800</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="35">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24">
+      <c r="C18" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H18" s="35">
+        <v>20</v>
+      </c>
+      <c r="I18" s="44">
+        <v>1800</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="37">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" ht="19.5" thickBot="1">
+      <c r="C19" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="42">
+        <v>1600</v>
+      </c>
+      <c r="H19" s="43">
+        <v>50</v>
+      </c>
+      <c r="I19" s="45">
+        <v>1800</v>
+      </c>
+      <c r="X19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24" ht="19.5" thickBot="1">
+      <c r="C20" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="53"/>
+    </row>
+    <row r="24" spans="3:24">
+      <c r="R24" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="59"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC40111-8DB6-4891-BCBC-09C978A59808}">
+  <dimension ref="C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7CCC84-C73B-4D58-8B91-6DE8DDF8C69B}">
+  <dimension ref="C3:R34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="17" max="17" width="10.25" customWidth="1"/>
+    <col min="18" max="18" width="16.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:18">
+      <c r="C3" s="65" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="3:18">
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18">
+      <c r="C5" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="M5" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="N5" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="O5" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="P5" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q5" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="R5" s="73" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18">
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="68"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="68"/>
+    </row>
+    <row r="7" spans="3:18">
+      <c r="C7" s="34"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="35"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="35"/>
+    </row>
+    <row r="8" spans="3:18">
+      <c r="C8" s="34"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="35"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="35"/>
+    </row>
+    <row r="9" spans="3:18">
+      <c r="C9" s="34"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="35"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="35"/>
+    </row>
+    <row r="10" spans="3:18">
+      <c r="C10" s="34"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="35"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="35"/>
+    </row>
+    <row r="11" spans="3:18">
+      <c r="C11" s="34"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="35"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="35"/>
+    </row>
+    <row r="12" spans="3:18">
+      <c r="C12" s="34"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="35"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="35"/>
+    </row>
+    <row r="13" spans="3:18">
+      <c r="C13" s="34"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="35"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="35"/>
+    </row>
+    <row r="14" spans="3:18">
+      <c r="C14" s="34"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="35"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="35"/>
+    </row>
+    <row r="15" spans="3:18">
+      <c r="C15" s="36"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="37"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="37"/>
+    </row>
+    <row r="18" spans="3:18">
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18">
+      <c r="C22" s="65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18">
+      <c r="C23" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18">
+      <c r="C24" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="L24" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="M24" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="N24" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="O24" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="P24" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q24" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="R24" s="73" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18">
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="68"/>
+    </row>
+    <row r="26" spans="3:18">
+      <c r="C26" s="34"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="35"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="35"/>
+    </row>
+    <row r="27" spans="3:18">
+      <c r="C27" s="34"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="35"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="35"/>
+    </row>
+    <row r="28" spans="3:18">
+      <c r="C28" s="34"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="35"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="35"/>
+    </row>
+    <row r="29" spans="3:18">
+      <c r="C29" s="34"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="35"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="35"/>
+    </row>
+    <row r="30" spans="3:18">
+      <c r="C30" s="34"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="35"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="35"/>
+    </row>
+    <row r="31" spans="3:18">
+      <c r="C31" s="34"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="35"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="35"/>
+    </row>
+    <row r="32" spans="3:18">
+      <c r="C32" s="34"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="35"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="35"/>
+    </row>
+    <row r="33" spans="3:18">
+      <c r="C33" s="34"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="35"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="35"/>
+    </row>
+    <row r="34" spans="3:18">
+      <c r="C34" s="36"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="37"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/★Tableauでの単価比較.xlsx
+++ b/★Tableauでの単価比較.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canon\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B94284D-24C8-443B-B15A-588B5EB2D48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29228CE5-0065-41FB-B409-D59407B3536E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="5" xr2:uid="{69230321-4922-4BCB-A4CA-114B3775621A}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="1" activeTab="6" xr2:uid="{69230321-4922-4BCB-A4CA-114B3775621A}"/>
   </bookViews>
   <sheets>
     <sheet name="No1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="単価予実" sheetId="5" r:id="rId4"/>
     <sheet name="前月比" sheetId="3" r:id="rId5"/>
     <sheet name="年間金額" sheetId="6" r:id="rId6"/>
+    <sheet name="⑩業者戦略ダッシュボード" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="178">
   <si>
     <t>FROM-TO</t>
     <phoneticPr fontId="2"/>
@@ -868,6 +870,132 @@
     <rPh sb="0" eb="4">
       <t>キンガクキボ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★業者戦略ダッシュボード(来期に向けて)</t>
+    <rPh sb="1" eb="5">
+      <t>ギョウシャセンリャク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ライキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①業者本数獲得分布</t>
+    <rPh sb="1" eb="3">
+      <t>ギョウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブンプ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②業者別本数獲得シェア</t>
+    <rPh sb="1" eb="4">
+      <t>ギョウシャベツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業者/エリア</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アジア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>欧州</t>
+    <rPh sb="0" eb="2">
+      <t>オウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>米州</t>
+    <rPh sb="0" eb="2">
+      <t>ベイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MSC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③主要レーンレート</t>
+    <rPh sb="1" eb="3">
+      <t>シュヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④主要レーン本数獲得シェア</t>
+    <rPh sb="1" eb="3">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ホンスウカクトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業者/レーン</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HPH-LAX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HPH-RTM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LCB-RTM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LCB-LAX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TYO-LAX</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1531,15 +1659,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1723,6 +1854,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1735,35 +1893,66 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="パーセント" xfId="2" builtinId="5"/>
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -3880,6 +4069,413 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64292A0-B22C-452B-934E-519694D7B018}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9344025" y="2057399"/>
+          <a:ext cx="1295400" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>交渉戦略</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>シェア率維持</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>継続契約</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>するために値下げをあらかじめお願い</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9414BD-9F21-40B6-9A25-3B7403CA322C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="4543425"/>
+          <a:ext cx="1295400" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>交渉戦略</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>同一レーンで単価差大きい業者に値下げをあらかじめお願い</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E2263F7-6B96-4856-8662-525203F001BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="4572000"/>
+          <a:ext cx="1295400" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>交渉戦略</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>シェア率維持</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>継続契約</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>するために値下げをあらかじめお願い</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048818E3-97E6-4854-8CD5-4B65E4235A04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="2085974"/>
+          <a:ext cx="1295400" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>交渉戦略</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>業者毎の傾向把握</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4204,14 +4800,14 @@
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="62"/>
+      <c r="N2" s="71"/>
     </row>
     <row r="3" spans="2:14" ht="12.75" customHeight="1">
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73"/>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
@@ -6315,7 +6911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7CCC84-C73B-4D58-8B91-6DE8DDF8C69B}">
   <dimension ref="C3:R34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -6326,7 +6922,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:18">
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="61" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6339,60 +6935,60 @@
       </c>
     </row>
     <row r="5" spans="3:18">
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="K5" s="71" t="s">
+      <c r="K5" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="M5" s="72" t="s">
+      <c r="M5" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="N5" s="72" t="s">
+      <c r="N5" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="Q5" s="70" t="s">
+      <c r="Q5" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="R5" s="73" t="s">
+      <c r="R5" s="69" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="6" spans="3:18">
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="68"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="68"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="64"/>
     </row>
     <row r="7" spans="3:18">
       <c r="C7" s="34"/>
@@ -6535,7 +7131,7 @@
       </c>
     </row>
     <row r="22" spans="3:18">
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="61" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6548,60 +7144,60 @@
       </c>
     </row>
     <row r="24" spans="3:18">
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="72" t="s">
+      <c r="D24" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="72" t="s">
+      <c r="E24" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="72" t="s">
+      <c r="F24" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="G24" s="73" t="s">
+      <c r="G24" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="K24" s="71" t="s">
+      <c r="K24" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="L24" s="72" t="s">
+      <c r="L24" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="M24" s="72" t="s">
+      <c r="M24" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="N24" s="72" t="s">
+      <c r="N24" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="O24" s="69" t="s">
+      <c r="O24" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="P24" s="69" t="s">
+      <c r="P24" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="Q24" s="70" t="s">
+      <c r="Q24" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="R24" s="73" t="s">
+      <c r="R24" s="69" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="25" spans="3:18">
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="68"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="68"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="64"/>
     </row>
     <row r="26" spans="3:18">
       <c r="C26" s="34"/>
@@ -6743,4 +7339,474 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED77F0D7-F87E-4827-8D9A-6C5A6104BB20}">
+  <dimension ref="B2:N20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M5" s="75" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="77">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="77">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="77">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="78">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="80">
+        <v>0.3</v>
+      </c>
+      <c r="L6" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="81">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="77">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="77">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="77">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="78">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="80">
+        <v>0.3</v>
+      </c>
+      <c r="K7" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="79">
+        <v>0.4</v>
+      </c>
+      <c r="M7" s="81">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="76">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="77">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="77">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="77">
+        <v>0</v>
+      </c>
+      <c r="G8" s="78">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J8" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="79">
+        <v>0.05</v>
+      </c>
+      <c r="M8" s="82">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="78"/>
+      <c r="I9" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="35"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="78"/>
+      <c r="I10" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="35"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="84"/>
+      <c r="I11" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="86">
+        <v>1</v>
+      </c>
+      <c r="K11" s="86">
+        <v>1</v>
+      </c>
+      <c r="L11" s="86">
+        <v>0.01</v>
+      </c>
+      <c r="M11" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="87" t="s">
+        <v>170</v>
+      </c>
+      <c r="I13" s="87" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N14" s="75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="20">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="20">
+        <v>2000</v>
+      </c>
+      <c r="E15" s="88">
+        <v>4000</v>
+      </c>
+      <c r="F15" s="20">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="89">
+        <v>500</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="80">
+        <v>0.3</v>
+      </c>
+      <c r="K15" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="L15" s="79">
+        <v>0.3</v>
+      </c>
+      <c r="M15" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="N15" s="82">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="88">
+        <v>4000</v>
+      </c>
+      <c r="D16" s="20">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="88">
+        <v>3000</v>
+      </c>
+      <c r="F16" s="88">
+        <v>1500</v>
+      </c>
+      <c r="G16" s="89">
+        <v>800</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="M16" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="N16" s="81">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="88">
+        <v>3000</v>
+      </c>
+      <c r="D17" s="88">
+        <v>4000</v>
+      </c>
+      <c r="E17" s="20">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="20">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="90">
+        <v>300</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="K17" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="L17" s="80">
+        <v>0.4</v>
+      </c>
+      <c r="M17" s="80">
+        <v>0.2</v>
+      </c>
+      <c r="N17" s="81">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="89"/>
+      <c r="I18" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="81"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="89"/>
+      <c r="I19" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="81"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="92"/>
+      <c r="I20" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="86">
+        <v>1</v>
+      </c>
+      <c r="K20" s="86">
+        <v>1</v>
+      </c>
+      <c r="L20" s="86">
+        <v>1</v>
+      </c>
+      <c r="M20" s="86">
+        <v>1</v>
+      </c>
+      <c r="N20" s="84">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1258635-F504-4905-8AA8-12F927489632}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>